--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Process Design Document\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A014B1-50CC-48A0-8FD4-CD1E7ADC6B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528EB07-1CAC-495A-A3E5-486A3900D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -98,71 +98,118 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>RPATraining</t>
+  </si>
+  <si>
+    <t>YearlyReport</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>ACMEUrl</t>
+  </si>
+  <si>
+    <t>FolderPath</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/download</t>
+  </si>
+  <si>
+    <t>ACMEDownoadPage</t>
+  </si>
+  <si>
+    <t>CheckAppStateTime</t>
+  </si>
+  <si>
+    <t>WorkBookSheetName</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/upload</t>
+  </si>
+  <si>
+    <t>UploadPageURL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items</t>
+  </si>
+  <si>
+    <t>WorkItemsURL</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>RPATraining</t>
-  </si>
-  <si>
-    <t>YearlyReport</t>
+  </si>
+  <si>
+    <t>ACMELogIn</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>AssetName</t>
+  </si>
+  <si>
+    <t>C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_2\</t>
   </si>
 </sst>
 </file>
@@ -541,7 +588,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -588,10 +635,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -599,13 +646,13 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -620,15 +667,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1678,18 +1788,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1713,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1735,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1746,7 +1856,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1757,53 +1867,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2805,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528EB07-1CAC-495A-A3E5-486A3900D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64F487-1EBD-42C0-95FE-ACB9104F7964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -209,7 +209,13 @@
     <t>AssetName</t>
   </si>
   <si>
-    <t>C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_2\</t>
+    <t>C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_2\MonthlyReportFolder\</t>
+  </si>
+  <si>
+    <t>January,February,March,April,May,June,July,August,September,October,November,December</t>
+  </si>
+  <si>
+    <t>ArrayOfMonths</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -739,7 +745,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64F487-1EBD-42C0-95FE-ACB9104F7964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7CBADE-078E-471C-AD7B-2A2FE5A86AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>ArrayOfMonths</t>
+  </si>
+  <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>Username and password is incorrect</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -753,7 +759,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
